--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H2">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N2">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P2">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q2">
-        <v>92.05725113641223</v>
+        <v>3.250761877259777</v>
       </c>
       <c r="R2">
-        <v>828.51526022771</v>
+        <v>29.25685689533799</v>
       </c>
       <c r="S2">
-        <v>0.01646200530144416</v>
+        <v>0.001906770691374847</v>
       </c>
       <c r="T2">
-        <v>0.01646200530144416</v>
+        <v>0.001906770691374847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H3">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P3">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q3">
-        <v>78.74394637840622</v>
+        <v>1.621617459321778</v>
       </c>
       <c r="R3">
-        <v>708.695517405656</v>
+        <v>14.594557133896</v>
       </c>
       <c r="S3">
-        <v>0.0140812727594603</v>
+        <v>0.0009511778348597306</v>
       </c>
       <c r="T3">
-        <v>0.01408127275946031</v>
+        <v>0.0009511778348597306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H4">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N4">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O4">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P4">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q4">
-        <v>2067.063005804603</v>
+        <v>36.68852886377555</v>
       </c>
       <c r="R4">
-        <v>18603.56705224142</v>
+        <v>330.19675977398</v>
       </c>
       <c r="S4">
-        <v>0.369639563857399</v>
+        <v>0.02152006643011242</v>
       </c>
       <c r="T4">
-        <v>0.369639563857399</v>
+        <v>0.02152006643011241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H5">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N5">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P5">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q5">
-        <v>299.39716544881</v>
+        <v>1.454788258678444</v>
       </c>
       <c r="R5">
-        <v>2694.57448903929</v>
+        <v>13.093094328106</v>
       </c>
       <c r="S5">
-        <v>0.05353926674990819</v>
+        <v>0.0008533223036756541</v>
       </c>
       <c r="T5">
-        <v>0.0535392667499082</v>
+        <v>0.0008533223036756541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N6">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P6">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q6">
-        <v>2.739869862915</v>
+        <v>4.698138933506999</v>
       </c>
       <c r="R6">
-        <v>24.658828766235</v>
+        <v>42.283250401563</v>
       </c>
       <c r="S6">
-        <v>0.0004899532807224298</v>
+        <v>0.002755745871478468</v>
       </c>
       <c r="T6">
-        <v>0.0004899532807224298</v>
+        <v>0.002755745871478468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P7">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q7">
         <v>2.343630326844</v>
@@ -883,10 +883,10 @@
         <v>21.092672941596</v>
       </c>
       <c r="S7">
-        <v>0.0004190963165732741</v>
+        <v>0.001374682547468019</v>
       </c>
       <c r="T7">
-        <v>0.0004190963165732742</v>
+        <v>0.001374682547468019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N8">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O8">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P8">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q8">
-        <v>61.521320313576</v>
+        <v>53.02381791597</v>
       </c>
       <c r="R8">
-        <v>553.691882822184</v>
+        <v>477.21436124373</v>
       </c>
       <c r="S8">
-        <v>0.01100146146720369</v>
+        <v>0.03110171269517709</v>
       </c>
       <c r="T8">
-        <v>0.01100146146720369</v>
+        <v>0.03110171269517708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N9">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P9">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q9">
-        <v>8.910859932584998</v>
+        <v>2.102521690659</v>
       </c>
       <c r="R9">
-        <v>80.197739393265</v>
+        <v>18.922695215931</v>
       </c>
       <c r="S9">
-        <v>0.001593471688973979</v>
+        <v>0.001233257583636939</v>
       </c>
       <c r="T9">
-        <v>0.001593471688973979</v>
+        <v>0.001233257583636939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H10">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N10">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P10">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q10">
-        <v>5.335446051843889</v>
+        <v>9.06211124941122</v>
       </c>
       <c r="R10">
-        <v>48.019014466595</v>
+        <v>81.55900124470098</v>
       </c>
       <c r="S10">
-        <v>0.0009541034530878182</v>
+        <v>0.005315482580631596</v>
       </c>
       <c r="T10">
-        <v>0.0009541034530878182</v>
+        <v>0.005315482580631595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H11">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.249148</v>
       </c>
       <c r="O11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P11">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q11">
-        <v>4.563834707476889</v>
+        <v>4.520564217010222</v>
       </c>
       <c r="R11">
-        <v>41.074512367292</v>
+        <v>40.685077953092</v>
       </c>
       <c r="S11">
-        <v>0.0008161211661433435</v>
+        <v>0.002651587437938984</v>
       </c>
       <c r="T11">
-        <v>0.0008161211661433436</v>
+        <v>0.002651587437938984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H12">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N12">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O12">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P12">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q12">
-        <v>119.8026555984187</v>
+        <v>102.2761871506344</v>
       </c>
       <c r="R12">
-        <v>1078.223900385768</v>
+        <v>920.48568435571</v>
       </c>
       <c r="S12">
-        <v>0.02142353727970678</v>
+        <v>0.05999124003779319</v>
       </c>
       <c r="T12">
-        <v>0.02142353727970678</v>
+        <v>0.05999124003779318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H13">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N13">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O13">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P13">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q13">
-        <v>17.352434540545</v>
+        <v>4.055496385848555</v>
       </c>
       <c r="R13">
-        <v>156.171910864905</v>
+        <v>36.49946747263699</v>
       </c>
       <c r="S13">
-        <v>0.003103024105902576</v>
+        <v>0.002378796706583466</v>
       </c>
       <c r="T13">
-        <v>0.003103024105902576</v>
+        <v>0.002378796706583466</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H14">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.655851666666667</v>
+        <v>2.839339666666666</v>
       </c>
       <c r="N14">
-        <v>4.967555</v>
+        <v>8.518018999999999</v>
       </c>
       <c r="O14">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297667</v>
       </c>
       <c r="P14">
-        <v>0.03628213169899143</v>
+        <v>0.07557152725297665</v>
       </c>
       <c r="Q14">
-        <v>102.7608987458194</v>
+        <v>111.8272593227023</v>
       </c>
       <c r="R14">
-        <v>924.8480887123749</v>
+        <v>1006.445333904321</v>
       </c>
       <c r="S14">
-        <v>0.01837606966373703</v>
+        <v>0.06559352810949176</v>
       </c>
       <c r="T14">
-        <v>0.01837606966373703</v>
+        <v>0.06559352810949175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H15">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.249148</v>
       </c>
       <c r="O15">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="P15">
-        <v>0.03103501568568562</v>
+        <v>0.03769827278900544</v>
       </c>
       <c r="Q15">
-        <v>87.89963420314443</v>
+        <v>55.78416475668132</v>
       </c>
       <c r="R15">
-        <v>791.0967078282999</v>
+        <v>502.0574828101319</v>
       </c>
       <c r="S15">
-        <v>0.0157185254435087</v>
+        <v>0.0327208249687387</v>
       </c>
       <c r="T15">
-        <v>0.0157185254435087</v>
+        <v>0.0327208249687387</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H16">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.180664</v>
+        <v>32.04516333333333</v>
       </c>
       <c r="N16">
-        <v>111.541992</v>
+        <v>96.13549</v>
       </c>
       <c r="O16">
-        <v>0.8146827249445348</v>
+        <v>0.852910260297995</v>
       </c>
       <c r="P16">
-        <v>0.8146827249445348</v>
+        <v>0.8529102602979949</v>
       </c>
       <c r="Q16">
-        <v>2307.403812503133</v>
+        <v>1262.097251760656</v>
       </c>
       <c r="R16">
-        <v>20766.6343125282</v>
+        <v>11358.87526584591</v>
       </c>
       <c r="S16">
-        <v>0.4126181623402253</v>
+        <v>0.7402972411349124</v>
       </c>
       <c r="T16">
-        <v>0.4126181623402253</v>
+        <v>0.7402972411349122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H17">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.385314999999999</v>
+        <v>1.270667666666667</v>
       </c>
       <c r="N17">
-        <v>16.155945</v>
+        <v>3.812003</v>
       </c>
       <c r="O17">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="P17">
-        <v>0.1180001276707882</v>
+        <v>0.03381993966002293</v>
       </c>
       <c r="Q17">
-        <v>334.2085650361249</v>
+        <v>50.04518633028632</v>
       </c>
       <c r="R17">
-        <v>3007.877085325124</v>
+        <v>450.4066769725769</v>
       </c>
       <c r="S17">
-        <v>0.05976436512600341</v>
+        <v>0.02935456306612687</v>
       </c>
       <c r="T17">
-        <v>0.05976436512600342</v>
+        <v>0.02935456306612687</v>
       </c>
     </row>
   </sheetData>
